--- a/001-nopCommerce-website-testing/RTM-Test_Scenario-Test_Cases-Defect_Report.xlsx
+++ b/001-nopCommerce-website-testing/RTM-Test_Scenario-Test_Cases-Defect_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Manual Testing\manual-testing\001-nopCommerce-website-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40979633-0138-4265-BAAE-C74D6AFF4031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A3D179-7D74-4ACC-BBEB-3AC7A0C443B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="264" windowWidth="16740" windowHeight="11340" activeTab="3" xr2:uid="{4ADC8436-97E2-465D-8B06-473841FBD156}"/>
+    <workbookView xWindow="3168" yWindow="636" windowWidth="16740" windowHeight="11340" activeTab="3" xr2:uid="{4ADC8436-97E2-465D-8B06-473841FBD156}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tes</t>
+  </si>
+  <si>
+    <t>Serial No</t>
+  </si>
+  <si>
+    <t>Requirement id</t>
+  </si>
+  <si>
+    <t>Requirement description</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
   </si>
 </sst>
 </file>
@@ -424,12 +445,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65C461E-14BA-47EE-B296-9635A871D73E}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>